--- a/Project-Service-implementation-Script/Sample Templates/ProjectTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProjectTemplate.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
   <si>
     <t>Template Version : 5.1.0</t>
   </si>
@@ -179,10 +179,10 @@
     <t>learningResources2-name</t>
   </si>
   <si>
-    <t>Diksha_loginId</t>
-  </si>
-  <si>
-    <t>Please provide Diksha Profile ID / Login ID / email / phone of the content creator.</t>
+    <t>projectService_loginId</t>
+  </si>
+  <si>
+    <t>Please provide projectService Profile ID / Login ID / email / phone of the content creator.</t>
   </si>
   <si>
     <t>learningResources2-link</t>
@@ -438,9 +438,6 @@
 NOTE : Certificate details tab will be mandatory if you select Yes here.</t>
   </si>
   <si>
-    <t>projectService_loginId</t>
-  </si>
-  <si>
     <t>recommendedFor</t>
   </si>
   <si>
@@ -465,7 +462,7 @@
     <t>has certificate</t>
   </si>
   <si>
-    <t>Cricket000</t>
+    <t>TestToCheck10</t>
   </si>
   <si>
     <t>IDE</t>
@@ -1056,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1137,6 +1134,12 @@
     <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1292,9 +1295,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1812,10 +1812,10 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="20"/>
@@ -1834,7 +1834,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1876,7 +1876,7 @@
       <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="37" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="35" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="A28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="20"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38" t="s">
+      <c r="D28" s="39"/>
+      <c r="E28" s="40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1936,41 +1936,41 @@
       <c r="A29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="20"/>
       <c r="D30" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="20"/>
       <c r="D31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="12"/>
@@ -1978,7 +1978,7 @@
       <c r="D32" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="35" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1993,22 +1993,22 @@
       <c r="D33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="35" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2021,31 +2021,31 @@
       <c r="D35" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="42"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="37"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="35" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3067,168 +3067,168 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="45" t="s">
+      <c r="L1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="51" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="52" t="s">
+      <c r="O2" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="P2" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="Q2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="R2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="S2" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="T2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="57" t="s">
         <v>103</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" ht="96.0" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="H3" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="56" t="s">
+      <c r="U3" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="V3" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="U3" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="V3" s="56" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -4273,415 +4273,415 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="65" t="s">
         <v>122</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="73" t="s">
+      <c r="N2" s="75" t="s">
         <v>125</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="74">
+      <c r="A3" s="76">
         <v>2.0</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="L3" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="M3" s="80" t="s">
+      <c r="N3" s="82" t="s">
         <v>130</v>
-      </c>
-      <c r="N3" s="80" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="74">
+      <c r="A4" s="76">
         <v>3.0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="76">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="74">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="H4" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="80" t="s">
+      <c r="N4" s="82" t="s">
         <v>136</v>
-      </c>
-      <c r="N4" s="80" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="84">
+      <c r="A5" s="86">
         <v>4.0</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="87" t="s">
+      <c r="H5" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="I5" s="90"/>
+      <c r="J5" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="80" t="s">
+      <c r="N5" s="82" t="s">
         <v>141</v>
-      </c>
-      <c r="N5" s="80" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="84">
+      <c r="A6" s="86">
         <v>5.0</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="85">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="87" t="s">
+      <c r="H6" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="80" t="s">
+      <c r="N6" s="82" t="s">
         <v>145</v>
-      </c>
-      <c r="N6" s="80" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="80">
+      <c r="A7" s="82">
         <v>6.0</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="82">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="80">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="87" t="s">
+      <c r="H7" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="80" t="s">
+      <c r="N7" s="82" t="s">
         <v>149</v>
-      </c>
-      <c r="N7" s="80" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="80">
+      <c r="A8" s="82">
         <v>7.0</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="87" t="s">
+      <c r="H8" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="80" t="s">
+      <c r="N8" s="82" t="s">
         <v>153</v>
-      </c>
-      <c r="N8" s="80" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="80">
+      <c r="A9" s="82">
         <v>8.0</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="82">
+        <v>7.0</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="80">
-        <v>7.0</v>
-      </c>
-      <c r="F9" s="80" t="s">
+      <c r="G9" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="H9" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="80" t="s">
+      <c r="N9" s="82" t="s">
         <v>158</v>
-      </c>
-      <c r="N9" s="80" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="80">
+      <c r="A10" s="82">
         <v>9.0</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="82">
+        <v>7.0</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="80">
-        <v>7.0</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="87" t="s">
+      <c r="H10" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="80" t="s">
+      <c r="N10" s="82" t="s">
         <v>162</v>
-      </c>
-      <c r="N10" s="80" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="80">
+      <c r="A11" s="82">
         <v>10.0</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="82">
+        <v>7.0</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="80">
-        <v>7.0</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="87" t="s">
+      <c r="H11" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="80" t="s">
+      <c r="N11" s="82" t="s">
         <v>166</v>
-      </c>
-      <c r="N11" s="80" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="80">
+      <c r="A12" s="82">
         <v>11.0</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="80" t="s">
+      <c r="N12" s="82" t="s">
         <v>169</v>
-      </c>
-      <c r="N12" s="80" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="80">
+      <c r="A13" s="82">
         <v>12.0</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="80" t="s">
+      <c r="N13" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="N13" s="80" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -5719,97 +5719,97 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="99" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="98" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="C3" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="D3" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="99" t="s">
+      <c r="G3" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1"/>

--- a/Project-Service-implementation-Script/Sample Templates/ProjectTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProjectTemplate.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Project upload" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tasks upload" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Certificate details" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Project upload" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Tasks upload" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Certificate details" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="A8" authorId="0">
@@ -33,10 +33,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">@adithya.d@pacewisdom.com dont add this here because this is the instruction for how to fill the sheet. Add this in the certificate details part
 	-Prateek agarwal
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
   <si>
     <t xml:space="preserve">Template Version : 5.1.0</t>
   </si>
@@ -385,6 +383,12 @@
   <si>
     <t xml:space="preserve">Please provide projectService Profile ID / Login ID / email / phone of the content creator 
 NOTE : For SSO login , Please provide us Profile Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide tenant_id to which the resource should be created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide org_id to which the resource should be created.</t>
   </si>
   <si>
     <t xml:space="preserve">Select the name of the categories from the below categories.
@@ -461,6 +465,12 @@
 NOTE : Certificate details tab will be mandatory if you select Yes here.</t>
   </si>
   <si>
+    <t xml:space="preserve">tenant_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">recommendedFor</t>
   </si>
   <si>
@@ -485,10 +495,10 @@
     <t xml:space="preserve">has certificate</t>
   </si>
   <si>
-    <t xml:space="preserve">Bihar Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDE</t>
+    <t xml:space="preserve">Karnataka Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant-Praj-17-15</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -497,7 +507,10 @@
     <t xml:space="preserve">any</t>
   </si>
   <si>
-    <t xml:space="preserve">community</t>
+    <t xml:space="preserve">all,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educationLeader</t>
   </si>
   <si>
     <t xml:space="preserve">Send an invitation to parents with the PTM date and time, and prepare the agenda with teachers. During the meeting, welcome parents, conduct an ice breaker, discuss the 'Parents as Partners' initiative, and have one-on-one conversations. Collect feedback and encourage sharing photos of learning spaces. After the meeting, record attendance, review feedback, and upload data to the app.</t>
@@ -735,7 +748,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -835,6 +848,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -995,256 +1013,264 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,8 +1355,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1342,464 +1474,464 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="109.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="22" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="23" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="24" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2803,200 +2935,218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="19.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="46.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="25.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="52.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="19.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="46.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="25.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="52.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" customFormat="false" ht="132.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="L1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
-      <c r="S1" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="31" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="29" t="s">
         <v>94</v>
       </c>
       <c r="V1" s="32" t="s">
         <v>95</v>
       </c>
+      <c r="W1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+    <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="L2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="M2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="O2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="34" t="s">
+      <c r="P2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="Q2" s="35" t="s">
         <v>102</v>
       </c>
+      <c r="R2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>104</v>
+      </c>
       <c r="T2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="W2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="37" t="s">
-        <v>103</v>
+      <c r="X2" s="38" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="38" t="s">
+    <row r="3" customFormat="false" ht="207.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
         <v>108</v>
       </c>
+      <c r="B3" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="40" t="n">
+        <v>24</v>
+      </c>
       <c r="F3" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="U3" s="38" t="n">
+      <c r="H3" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="V3" s="38" t="s">
-        <v>113</v>
+      <c r="X3" s="39" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3998,29 +4148,29 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="R3">
+  <conditionalFormatting sqref="T3">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(R3))&gt;0</formula>
+      <formula>LEN(TRIM(T3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3 Q3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3 S3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J3" type="list">
       <formula1>"District Education Officer,Mentee,Public,User,Session Manager,Head Master,BEO,AMO,Cluster Resource Persons,Cluster Academic Coordinator,Principle,Block Education Officer,Block Academic Coordinator,District Resource Person,State Project Director,State Leve"&amp;"l Campaign Coordinator"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="R3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="T3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="https://youtu.be/libKVRa01L8?feature=shared"/>
+    <hyperlink ref="M3" r:id="rId1" display="https://youtu.be/libKVRa01L8?feature=shared"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4033,7 +4183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4045,428 +4195,428 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="53.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="50.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="24.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="53.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="50.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="24.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>121</v>
+      <c r="L1" s="32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>124</v>
+      <c r="M2" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="n">
+      <c r="A3" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="n">
+      <c r="B3" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>129</v>
+      <c r="M3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="n">
+      <c r="A4" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="50" t="n">
+      <c r="B4" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="n">
+      <c r="E4" s="54"/>
+      <c r="F4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>136</v>
+      <c r="M4" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="n">
+      <c r="A5" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="8" t="n">
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>141</v>
+      <c r="K5" s="57"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="n">
+      <c r="A6" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="8" t="n">
+      <c r="B6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>145</v>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="n">
+      <c r="A7" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="38" t="n">
+      <c r="B7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>149</v>
+      <c r="M7" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="n">
+      <c r="A8" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="B8" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>153</v>
+      <c r="M8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="n">
+      <c r="A9" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="38" t="n">
+      <c r="B9" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="F9" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>158</v>
+      <c r="M9" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="n">
+      <c r="A10" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="38" t="n">
+      <c r="B10" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="G10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>162</v>
+      <c r="M10" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="n">
+      <c r="A11" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="38" t="n">
+      <c r="B11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="21" t="s">
+      <c r="F11" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>166</v>
+      <c r="M11" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="n">
+      <c r="A12" s="39" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="N12" s="38" t="s">
-        <v>169</v>
+      <c r="B12" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="n">
+      <c r="A13" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>172</v>
+      <c r="B13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5490,121 +5640,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="52.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="52.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="59" t="s">
-        <v>176</v>
+      <c r="H2" s="61" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
+    <row r="3" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
